--- a/data/dividends_info_20260213.xlsx
+++ b/data/dividends_info_20260213.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>54.04999923706055</v>
+        <v>53.59999847412109</v>
       </c>
       <c r="I2" t="n">
-        <v>1.295097150565785</v>
+        <v>1.305970186431947</v>
       </c>
       <c r="J2" t="n">
         <v>367</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>54.04999923706055</v>
+        <v>53.59999847412109</v>
       </c>
       <c r="I3" t="n">
-        <v>4.070305330349612</v>
+        <v>4.10447772878612</v>
       </c>
       <c r="J3" t="n">
         <v>94</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19.67499923706055</v>
+        <v>19.35499954223633</v>
       </c>
       <c r="I4" t="n">
-        <v>4.01524793206562</v>
+        <v>4.081632749595618</v>
       </c>
       <c r="J4" t="n">
         <v>94</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.848000049591064</v>
+        <v>5.697000026702881</v>
       </c>
       <c r="I5" t="n">
-        <v>3.248973980656621</v>
+        <v>3.335088627513345</v>
       </c>
       <c r="J5" t="n">
         <v>94</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.800000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.801136237900121</v>
+        <v>6.005882352941176</v>
       </c>
       <c r="J6" t="n">
         <v>80</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.840000152587891</v>
+        <v>6.824999809265137</v>
       </c>
       <c r="I8" t="n">
-        <v>7.309941357396413</v>
+        <v>7.326007530743596</v>
       </c>
       <c r="J8" t="n">
         <v>66</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12.29500007629395</v>
+        <v>11.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.392029252941421</v>
+        <v>4.595744680851064</v>
       </c>
       <c r="J9" t="n">
         <v>66</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.79999923706055</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="I10" t="n">
-        <v>5.271317985337073</v>
+        <v>5.291828636679189</v>
       </c>
       <c r="J10" t="n">
         <v>66</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18.0049991607666</v>
+        <v>17.69000053405762</v>
       </c>
       <c r="I11" t="n">
-        <v>3.499028210858169</v>
+        <v>3.561333979538862</v>
       </c>
       <c r="J11" t="n">
         <v>66</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>28.10499954223633</v>
+        <v>28.44499969482422</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3202277227037402</v>
+        <v>0.3164000737056649</v>
       </c>
       <c r="J12" t="n">
         <v>38</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.774999976158142</v>
+        <v>1.720000028610229</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3802817355449</v>
+        <v>3.488372034998183</v>
       </c>
       <c r="J13" t="n">
         <v>-4</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.1875</v>
+        <v>0.1840000003576279</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>32.60869558879468</v>
       </c>
       <c r="J14" t="n">
         <v>-11</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.583999633789062</v>
+        <v>9.305999755859375</v>
       </c>
       <c r="I15" t="n">
-        <v>2.399833146791021</v>
+        <v>2.471523812959313</v>
       </c>
       <c r="J15" t="n">
         <v>-25</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.202000141143799</v>
+        <v>6.276000022888184</v>
       </c>
       <c r="I16" t="n">
-        <v>1.947758743161228</v>
+        <v>1.924792854675747</v>
       </c>
       <c r="J16" t="n">
         <v>-25</v>
@@ -1209,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1339,7 +1339,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KALEON S.P.A.</t>
+          <t>ECOSUNTEK S.p.A.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Leone Film Group S.p.A.</t>
+          <t>KALEON S.P.A.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1373,7 +1373,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECOSUNTEK S.p.A.</t>
+          <t>Leone Film Group S.p.A.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1441,7 +1441,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
+          <t>Casta Diva Group S.p.A.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1451,14 +1451,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Casta Diva Group S.p.A.</t>
+          <t>BRUNELLO CUCINELLI S.p.A.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1468,14 +1468,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>BRUNELLO CUCINELLI S.p.A.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moncler S.p.A.</t>
+          <t>Alfonsino S.p.A.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1502,14 +1502,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moncler S.p.A.</t>
+          <t>Laboratorio Farmaceutico Erfo S.p.A.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>Markbass S.p.A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Laboratorio Farmaceutico Erfo S.p.A.</t>
+          <t>Moncler S.p.A.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1553,14 +1553,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alfonsino S.p.A.</t>
+          <t>Moncler S.p.A.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Markbass S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Yakkyo S.p.A.</t>
+          <t>Unicredit S.p.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>Yakkyo S.p.A.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1679,7 +1679,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1689,14 +1689,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Unicredit S.p.A.</t>
+          <t>GREEN OLEO S.p.A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1706,14 +1706,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GREEN OLEO S.p.A</t>
+          <t>Haiki+ S.p.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Haiki+ S.p.A.</t>
+          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1910,14 +1910,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>Datrix S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1985,7 +1985,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2046,14 +2046,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2274,7 +2274,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2284,14 +2284,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2301,14 +2301,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2386,14 +2386,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2403,14 +2403,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2444,29 +2444,29 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2478,24 +2478,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2505,14 +2505,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2556,19 +2556,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2580,29 +2580,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2614,12 +2614,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2631,12 +2631,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2648,12 +2648,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2665,12 +2665,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2682,46 +2682,46 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2750,7 +2750,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2767,46 +2767,46 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2818,29 +2818,29 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2852,12 +2852,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2869,46 +2869,46 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2920,12 +2920,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2937,12 +2937,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2954,12 +2954,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2971,12 +2971,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2988,46 +2988,46 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3039,29 +3039,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3073,12 +3073,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3090,46 +3090,46 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3141,12 +3141,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3158,7 +3158,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3168,14 +3168,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3209,7 +3209,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3219,14 +3219,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3243,7 +3243,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3294,7 +3294,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3304,14 +3304,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3345,63 +3345,63 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3413,46 +3413,46 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3464,46 +3464,46 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3549,7 +3549,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3566,7 +3566,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3576,14 +3576,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3593,14 +3593,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3617,7 +3617,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3661,14 +3661,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3678,14 +3678,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3695,14 +3695,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3729,14 +3729,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3753,7 +3753,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3855,7 +3855,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3865,14 +3865,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3889,7 +3889,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3923,12 +3923,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3940,29 +3940,29 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3991,12 +3991,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4008,12 +4008,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4025,12 +4025,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4042,12 +4042,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4059,41 +4059,41 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4127,7 +4127,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4144,15 +4144,185 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>IRCE s.p.a</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>DE' LONGHI S.p.A.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>EL.EN. S.p.A.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>EMAK S.p.A.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
           <t>Neodecortech S.p.A.</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Impianti S.p.A.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>LU-VE S.p.A.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>LU-VE S.p.A.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MARR S.p.A.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>DE' LONGHI S.p.A.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CEMBRE S.p.A.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t>Bod Annual Report</t>
         </is>
@@ -4187,83 +4357,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Neodecortech S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>